--- a/biology/Botanique/Lindera_erythrocarpa/Lindera_erythrocarpa.xlsx
+++ b/biology/Botanique/Lindera_erythrocarpa/Lindera_erythrocarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lindera erythrocarpa est un arbuste ou petit arbre de la famille des Lauracées originaire de Chine.
 Nom chinois : 红果山胡椒 - Nom Coréen : 비목나무 - Nom japonais : カナクギノキ
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Benzoin erythrocarpum (Makino) Rehder
 Lindera erythrocarpa var. longipes S.B.Liang
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste pouvant atteindre 5 m de haut au feuillage caduc. Son port est érigé.
 Son écorce est gris-brun, mais les jeunes branches peuvent être gris-clair ou jaune-gris.
@@ -580,7 +596,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire d'Asie de l'Est, de Chine - Anhui, Fujian, Guangdong, Guangxi, Henan, Hubei, Hunan, Jiangsu, Jiangxi, Shaanxi, Shandong, Sichuan, Taiwan -, de Corée et du Japon. Elle est présente dans les ripisylves et forêts des collines et vallées d'altitude inférieure à 1000 m.
 </t>
